--- a/images/2014/12/pie-and-bar-clean-template.xlsx
+++ b/images/2014/12/pie-and-bar-clean-template.xlsx
@@ -25,7 +25,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="dat.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="falcon:Users:bob:Desktop:dat.csv" comma="1">
+    <textPr fileType="mac" sourceFile="falcon:Users:bob:Desktop:dat.csv" comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -507,11 +507,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="-25"/>
-        <c:axId val="-2112196200"/>
-        <c:axId val="-2112185224"/>
+        <c:axId val="2062050648"/>
+        <c:axId val="2062453288"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="-2112185224"/>
+        <c:axId val="2062453288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,11 +521,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112196200"/>
+        <c:crossAx val="2062050648"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2112196200"/>
+        <c:axId val="2062050648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -549,7 +550,8 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2112185224"/>
+        <c:crossAx val="2062453288"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -851,11 +853,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dat_1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dat" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dat" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dat_1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1183,7 +1185,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
